--- a/report/No5_テスト結果.xlsx
+++ b/report/No5_テスト結果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -15,23 +15,63 @@
     <sheet name="6" sheetId="6" r:id="rId6"/>
     <sheet name="7" sheetId="7" r:id="rId7"/>
     <sheet name="8" sheetId="12" r:id="rId8"/>
+    <sheet name="9" sheetId="13" r:id="rId9"/>
+    <sheet name="10" sheetId="14" r:id="rId10"/>
+    <sheet name="11" sheetId="15" r:id="rId11"/>
+    <sheet name="12" sheetId="16" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
   <si>
     <t>!2023/8/21</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>加入者編集ページ</t>
+  </si>
+  <si>
+    <t>加入者編集ページを開いた時の削除ボタンの位置</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンにカーソルを合わせた時のリンク</t>
+  </si>
+  <si>
+    <t>削除ボタンを押した時の動作</t>
+  </si>
+  <si>
+    <t>加入者編集ページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除処理がされた時の動作</t>
+  </si>
+  <si>
+    <t>加入者追加登録ページの開いた時の削除ボタンの位置</t>
+  </si>
+  <si>
+    <t>料金編集ページ</t>
+  </si>
+  <si>
+    <t>料金編集ページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>料金編集ページを開いた時の削除ボタンの位置</t>
+  </si>
+  <si>
+    <t>料金新規登録ページの開いた時の削除ボタンの位置</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,7 +96,15 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF767171"/>
+      <color theme="1"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="ＭＳ 明朝"/>
       <family val="1"/>
       <charset val="128"/>
@@ -82,15 +130,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -397,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView showFormulas="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView showFormulas="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -416,20 +469,23 @@
       <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C3:G3"/>
     <mergeCell ref="L3:O3"/>
+    <mergeCell ref="B3:C3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -437,12 +493,114 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -459,9 +617,17 @@
       <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -475,10 +641,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -492,9 +658,17 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -507,10 +681,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -524,7 +698,14 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B3" s="3"/>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -534,10 +715,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -551,7 +732,14 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B3" s="3"/>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -561,10 +749,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -578,7 +766,14 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B3" s="4"/>
+      <c r="B3" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -591,7 +786,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -605,7 +800,9 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B3" s="4"/>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -616,10 +813,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -627,18 +824,72 @@
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <v>45159</v>
       </c>
     </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="1">
+        <v>45159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100C424317A42AA8449A97AAE94730ED181" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9df5c7ff725c9e365f8a8503f6029c6b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dab87824-9c6b-4a08-9c96-9c9ea904f12c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98e3d8fd3bbedc5b58bd9df00d6be37e" ns2:_="">
     <xsd:import namespace="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
@@ -796,15 +1047,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -812,6 +1054,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFE06169-F6B9-4EE2-B032-3DCCE6AFCC5C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -829,14 +1079,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
   <ds:schemaRefs>

--- a/report/No5_テスト結果.xlsx
+++ b/report/No5_テスト結果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -17,41 +17,19 @@
     <sheet name="8" sheetId="12" r:id="rId8"/>
     <sheet name="9" sheetId="13" r:id="rId9"/>
     <sheet name="10" sheetId="14" r:id="rId10"/>
-    <sheet name="11" sheetId="15" r:id="rId11"/>
-    <sheet name="12" sheetId="16" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>!2023/8/21</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>加入者編集ページ</t>
-  </si>
-  <si>
-    <t>加入者編集ページを開いた時の削除ボタンの位置</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ボタンにカーソルを合わせた時のリンク</t>
-  </si>
-  <si>
-    <t>削除ボタンを押した時の動作</t>
-  </si>
-  <si>
-    <t>加入者編集ページ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>削除処理がされた時の動作</t>
-  </si>
-  <si>
-    <t>加入者追加登録ページの開いた時の削除ボタンの位置</t>
   </si>
   <si>
     <t>料金編集ページ</t>
@@ -61,17 +39,85 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>料金編集ページを開いた時の削除ボタンの位置</t>
+    <t>加入者編集ページの決定ボタンやキャンセルリンクのある列の右端に赤いボタンで削除ボタンが表示される。</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>料金新規登録ページの開いた時の削除ボタンの位置</t>
+    <t>ボタンにカーソルを合わせた際、画面の左下にhttp://localhost:8080/member/delete/{id}の形でリンクが表示される。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除ボタンを押した時、IDを表示し削除に関する確認メッセージを表示。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑カーソルを合わせた際に表示されるリンク</t>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加入者編集ページ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①　レコードの削除処理が成功すると、加入者検索画面に戻り「削除されました。」のメッセージが緑の枠に囲まれてタイトルの下に表示される。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追加登録ページの決定ボタンやキャンセルリンクのある列の右端には、削除ボタンが表示されない。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>料金編集ページの決定ボタンやキャンセルリンクのある列の右端に赤いボタンで削除ボタンが表示される。</t>
+    <rPh sb="0" eb="2">
+      <t>リョウキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボタンにカーソルを合わせた際、画面の左下にhttp://localhost:8080/charge/delete/{id}の形でリンクが表示される。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①　レコードの削除処理が成功すると、料金検索画面に戻り「削除されました。」のメッセージが緑の枠に囲まれてタイトルの下に表示される。
+</t>
+    <rPh sb="18" eb="20">
+      <t>リョウキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">②　 レコードの削除処理が成功すると、対象のレコードを持っていたT_CHARGEテーブルからレコードが消える。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">②　 レコードの削除処理が成功すると、対象のレコードを持っていたT_MEMBERテーブルからレコードが消える。
+</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録ページの決定ボタンやキャンセルリンクのある列の右端には、削除ボタンが表示されない。</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,13 +155,56 @@
       <family val="1"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -130,20 +219,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -159,6 +279,946 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>74640</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>88002</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="694765"/>
+          <a:ext cx="5763428" cy="4267796"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>162729</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>105292</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="685800"/>
+          <a:ext cx="5763429" cy="3705742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>198108</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>22368</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="884465"/>
+          <a:ext cx="5763429" cy="4267796"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>182900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>65590</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="672353"/>
+          <a:ext cx="5763429" cy="4267796"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>544070</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>67166</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9925050"/>
+          <a:ext cx="8202170" cy="3515216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>162729</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>29171</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="904875"/>
+          <a:ext cx="5763429" cy="4267796"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>162729</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>162521</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5153025"/>
+          <a:ext cx="5763429" cy="4267796"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>544070</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>105266</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13392150"/>
+          <a:ext cx="8202170" cy="3515216"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1095375" y="12763500"/>
+          <a:ext cx="238125" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1076325" y="16221075"/>
+          <a:ext cx="238125" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="8305800"/>
+          <a:ext cx="238125" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>182900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>65590</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="672353"/>
+          <a:ext cx="5763429" cy="4267796"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>162729</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>153043</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="857250"/>
+          <a:ext cx="5763429" cy="4610743"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>162729</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>48155</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="704850"/>
+          <a:ext cx="5763429" cy="3801005"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>147820</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>148374</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="695739"/>
+          <a:ext cx="5763429" cy="3801005"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>467955</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>38609</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9420225"/>
+          <a:ext cx="8811855" cy="3648584"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>162729</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>29105</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="857250"/>
+          <a:ext cx="5763429" cy="3801005"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>162729</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4648200"/>
+          <a:ext cx="5763429" cy="4439270"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>467955</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>19559</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13001625"/>
+          <a:ext cx="8811855" cy="3648584"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直線矢印コネクタ 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1076325" y="12544425"/>
+          <a:ext cx="238125" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1066800" y="16125825"/>
+          <a:ext cx="238125" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104775" y="8620125"/>
+          <a:ext cx="238125" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -448,10 +1508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:H4"/>
+    <sheetView showFormulas="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -469,36 +1529,49 @@
       <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -506,101 +1579,47 @@
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <v>45159</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="17"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:C4"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="1">
-        <v>45159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="1">
-        <v>45159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B3" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -616,26 +1635,67 @@
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+    <row r="3" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="J3:L3"/>
+  <mergeCells count="3">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="B3:G4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -643,8 +1703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -659,32 +1719,42 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
+      <c r="C4" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="J3:L3"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57:H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -692,33 +1762,87 @@
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <v>45159</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B3" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B3" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
+      <c r="C5" s="10"/>
+    </row>
+    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+    </row>
+    <row r="57" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="13"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="13"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B3:I4"/>
+    <mergeCell ref="B57:H58"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -726,33 +1850,48 @@
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <v>45159</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="15"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
+      <c r="C4" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B3:J3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -760,33 +1899,53 @@
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <v>45159</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B3" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="B5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="17"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B4:K4"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -794,29 +1953,68 @@
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <v>45159</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B4" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="17"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B2:G3"/>
+    <mergeCell ref="A27:D27"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -824,33 +2022,45 @@
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <v>45159</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B4" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="17"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B4:C4"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -858,35 +2068,76 @@
     <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1">
         <v>45159</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B3" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="17"/>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B54" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:I4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B54:H55"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1048,15 +2299,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1080,17 +2342,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/report/No5_テスト結果.xlsx
+++ b/report/No5_テスト結果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="17">
   <si>
     <t>!2023/8/21</t>
     <phoneticPr fontId="1"/>
@@ -101,14 +101,16 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">②　 レコードの削除処理が成功すると、対象のレコードを持っていたT_MEMBERテーブルからレコードが消える。
-</t>
+    <t>新規登録ページの決定ボタンやキャンセルリンクのある列の右端には、削除ボタンが表示されない。</t>
+    <rPh sb="0" eb="2">
+      <t>シンキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>新規登録ページの決定ボタンやキャンセルリンクのある列の右端には、削除ボタンが表示されない。</t>
-    <rPh sb="0" eb="2">
-      <t>シンキ</t>
+    <t>↓削除後</t>
+    <rPh sb="1" eb="4">
+      <t>サクジョゴ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -219,21 +221,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -241,20 +242,21 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -263,6 +265,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -321,6 +329,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>2264</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>154686</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="694765"/>
+          <a:ext cx="8364117" cy="4334480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -364,6 +410,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>20217</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>48230</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="685800"/>
+          <a:ext cx="8364117" cy="4334480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -373,14 +457,100 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>160565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>20217</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>37345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="846365"/>
+          <a:ext cx="8364117" cy="4334480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>49352</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>143479</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="683558"/>
+          <a:ext cx="8364117" cy="4334480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>198108</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>22368</xdr:rowOff>
+      <xdr:colOff>162729</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>162521</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -397,168 +567,6 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="884465"/>
-          <a:ext cx="5763429" cy="4267796"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>182900</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>65590</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="672353"/>
-          <a:ext cx="5763429" cy="4267796"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>544070</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>67166</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="9925050"/>
-          <a:ext cx="8202170" cy="3515216"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>162729</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>29171</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="904875"/>
-          <a:ext cx="5763429" cy="4267796"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>162729</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>162521</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
           <a:off x="0" y="5153025"/>
           <a:ext cx="5763429" cy="4267796"/>
         </a:xfrm>
@@ -569,65 +577,27 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>544070</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>105266</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="13392150"/>
-          <a:ext cx="8202170" cy="3515216"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
+        <xdr:cNvPr id="9" name="直線矢印コネクタ 8"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1095375" y="12763500"/>
+          <a:off x="114300" y="8305800"/>
           <a:ext cx="238125" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
@@ -654,98 +624,434 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>20217</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>57755</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5153025"/>
+          <a:ext cx="8364117" cy="4334480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>467955</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>19526</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="14439900"/>
+          <a:ext cx="8811855" cy="3410426"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>20217</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>48230</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="857250"/>
+          <a:ext cx="8364117" cy="4334480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>20217</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>162530</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9715500"/>
+          <a:ext cx="8364117" cy="4334480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>467955</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>162401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="18011775"/>
+          <a:ext cx="8811855" cy="3410426"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線矢印コネクタ 7"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1076325" y="16221075"/>
-          <a:ext cx="238125" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="361950" y="7724775"/>
+          <a:ext cx="7105650" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
         <a:ln>
-          <a:tailEnd type="triangle"/>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="0">
+        <a:fillRef idx="1">
           <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="直線矢印コネクタ 8"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="114300" y="8305800"/>
-          <a:ext cx="238125" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="381000" y="12306300"/>
+          <a:ext cx="7105650" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
         <a:ln>
-          <a:tailEnd type="triangle"/>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="0">
+        <a:fillRef idx="1">
           <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1362075" y="17325975"/>
+          <a:ext cx="6115050" cy="142876"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1362075" y="20783549"/>
+          <a:ext cx="5629275" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -791,6 +1097,44 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>49352</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>132274</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="672353"/>
+          <a:ext cx="8364117" cy="4334480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -804,10 +1148,53 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>162729</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>153043</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>20217</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>48230</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="857250"/>
+          <a:ext cx="8364117" cy="4334480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>20217</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76805</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -824,8 +1211,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="857250"/>
-          <a:ext cx="5763429" cy="4610743"/>
+          <a:off x="0" y="714375"/>
+          <a:ext cx="8364117" cy="4334480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -837,20 +1224,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>162729</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>48155</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>686139</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>160045</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -867,8 +1254,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="704850"/>
-          <a:ext cx="5763429" cy="3801005"/>
+          <a:off x="0" y="695739"/>
+          <a:ext cx="8364117" cy="4334480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -880,24 +1267,24 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>147820</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>148374</xdr:rowOff>
+      <xdr:colOff>162729</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>29105</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPr id="3" name="図 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -910,7 +1297,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="695739"/>
+          <a:off x="0" y="857250"/>
           <a:ext cx="5763429" cy="3801005"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -920,65 +1307,22 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>467955</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>38609</xdr:rowOff>
+      <xdr:colOff>315533</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>29084</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="9420225"/>
-          <a:ext cx="8811855" cy="3648584"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>162729</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>29105</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="10" name="図 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -991,8 +1335,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="857250"/>
-          <a:ext cx="5763429" cy="3801005"/>
+          <a:off x="0" y="13868400"/>
+          <a:ext cx="8659433" cy="3648584"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1005,18 +1349,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>162729</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>620</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>20217</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38705</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPr id="11" name="図 10"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1029,8 +1373,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="4648200"/>
-          <a:ext cx="5763429" cy="4439270"/>
+          <a:off x="0" y="847725"/>
+          <a:ext cx="8364117" cy="4334480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1043,18 +1387,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>467955</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>19559</xdr:rowOff>
+      <xdr:colOff>20217</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>105380</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPr id="9" name="図 8"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1067,8 +1411,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="13001625"/>
-          <a:ext cx="8811855" cy="3648584"/>
+          <a:off x="0" y="4686300"/>
+          <a:ext cx="8364117" cy="4334480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1077,145 +1421,320 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>20217</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>133955</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9172575"/>
+          <a:ext cx="8364117" cy="4334480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>315533</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>124334</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="17735550"/>
+          <a:ext cx="8659433" cy="3648584"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直線矢印コネクタ 5"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1076325" y="12544425"/>
-          <a:ext cx="238125" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="352425" y="7791450"/>
+          <a:ext cx="7105650" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
         <a:ln>
-          <a:tailEnd type="triangle"/>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="0">
+        <a:fillRef idx="1">
           <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線矢印コネクタ 6"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1066800" y="16125825"/>
-          <a:ext cx="238125" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="371475" y="12268200"/>
+          <a:ext cx="7105650" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
         <a:ln>
-          <a:tailEnd type="triangle"/>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="0">
+        <a:fillRef idx="1">
           <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線矢印コネクタ 7"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="104775" y="8620125"/>
-          <a:ext cx="238125" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1209675" y="16906875"/>
+          <a:ext cx="6496050" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
         <a:ln>
-          <a:tailEnd type="triangle"/>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="0">
+        <a:fillRef idx="1">
           <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="20793075"/>
+          <a:ext cx="6496050" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1510,7 +2029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView showFormulas="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showFormulas="1" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:M3"/>
     </sheetView>
   </sheetViews>
@@ -1529,30 +2048,30 @@
       <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="16"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1570,7 +2089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1585,17 +2104,17 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B3" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="B3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B4" s="17" t="s">
@@ -1618,8 +2137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:D30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1636,61 +2155,68 @@
       <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="11"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="B3:G4"/>
+    <mergeCell ref="A31:D31"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1718,24 +2244,24 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1751,10 +2277,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I58"/>
+  <dimension ref="A1:I105"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57:H58"/>
+    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56:D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1768,68 +2294,127 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="11"/>
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
+      <c r="B56" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="21"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
     </row>
     <row r="57" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="13"/>
+      <c r="B57" s="21"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="21"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="6"/>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B58" s="11"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="13"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="6"/>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="20"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="20"/>
+      <c r="H82" s="20"/>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B83" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="14"/>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+      <c r="H88" s="14"/>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+      <c r="H89" s="14"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A105" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B105" s="12"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="A105:E105"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B3:I4"/>
-    <mergeCell ref="B57:H58"/>
+    <mergeCell ref="B88:H89"/>
+    <mergeCell ref="B83:H84"/>
+    <mergeCell ref="B56:D57"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1856,24 +2441,24 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="10"/>
+      <c r="C4" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1890,8 +2475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1908,20 +2493,20 @@
       <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="B5" s="17" t="s">
@@ -1942,10 +2527,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1983,24 +2568,40 @@
       <c r="C4" s="17"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B2:G3"/>
     <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A31:D31"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2013,7 +2614,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -2028,15 +2629,15 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B4" s="17" t="s">
@@ -2057,10 +2658,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2074,26 +2675,26 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="17" t="s">
@@ -2101,31 +2702,89 @@
       </c>
       <c r="C5" s="17"/>
     </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B53" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+    </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="21"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="20"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B80" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="11"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="14"/>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+      <c r="H87" s="14"/>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B103" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" s="21"/>
+      <c r="D103" s="21"/>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B104" s="21"/>
+      <c r="C104" s="21"/>
+      <c r="D104" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="B103:D104"/>
     <mergeCell ref="B3:I4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B54:H55"/>
+    <mergeCell ref="B86:H87"/>
+    <mergeCell ref="B53:D54"/>
+    <mergeCell ref="B80:H81"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2141,6 +2800,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100C424317A42AA8449A97AAE94730ED181" ma:contentTypeVersion="6" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="9df5c7ff725c9e365f8a8503f6029c6b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="dab87824-9c6b-4a08-9c96-9c9ea904f12c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="98e3d8fd3bbedc5b58bd9df00d6be37e" ns2:_="">
     <xsd:import namespace="dab87824-9c6b-4a08-9c96-9c9ea904f12c"/>
@@ -2298,15 +2966,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8048152-0CA9-47E5-A6CC-6D3980A2E781}">
   <ds:schemaRefs>
@@ -2324,6 +2983,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFE06169-F6B9-4EE2-B032-3DCCE6AFCC5C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2339,12 +3006,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{25A96F8A-B775-40FD-BBE8-4BBDAB58FCAE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>